--- a/biology/Botanique/Cynodon_incompletus/Cynodon_incompletus.xlsx
+++ b/biology/Botanique/Cynodon_incompletus/Cynodon_incompletus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cynodon incompletus (synonyme : Cynodon hirsutus) est une espèce de plantes monocotylédones de la famille des Poaceae, originaire d'Afrique du Sud.
 C'est une plante herbacée vivace stolonifère, qui se rencontre dans les terrains vagues, les jachères et les champs cultivés.
@@ -517,16 +529,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (21 février 2016)[2] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (21 février 2016) :
 Capriola incompleta (Nees) Skeels,
 Cynodon bradleyi Stent,
 Cynodon hirsutus Stent,
 Cynodon hirsutus var. sesquiflorus Parodi,
 Cynodon incompletus var. hirsutus (Stent) de Wet &amp; Harlan,
-Cynodon notatus Nees.
-Liste des variétés
-Selon Tropicos                                           (21 février 2016)[3] (Attention liste brute contenant possiblement des synonymes) :
+Cynodon notatus Nees.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cynodon_incompletus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cynodon_incompletus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (21 février 2016) (Attention liste brute contenant possiblement des synonymes) :
 variété Cynodon incompletus var. hirsutus (Stent) de Wet &amp; J.R. Harlan
 variété Cynodon incompletus var. incompletus</t>
         </is>
